--- a/data/расход.xlsx
+++ b/data/расход.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G1415-01\Desktop\Mukhamed\projects\water_pol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G1415-01\Desktop\Mukhamed\projects\water_pol\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6B93A2-BFA1-4854-B121-EA45CA6837FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F1BB6-C07F-4835-89EC-990ECD0B4C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
